--- a/ExcelToDB/assist/模板.xlsx
+++ b/ExcelToDB/assist/模板.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HLT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\ExcelToDB\ExcelToDB\assist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6F9165-9B53-42C2-841A-FCE5FB86C41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2760FF2F-F3F2-4CBB-9700-62596C0BDEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>序号</t>
   </si>
@@ -52,160 +52,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskID</t>
+  </si>
+  <si>
+    <t>AppAccount</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
+  </si>
+  <si>
+    <t>工号</t>
+  </si>
+  <si>
+    <t>CreaterName</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>CreaterCode</t>
+  </si>
+  <si>
+    <t>创建人ID</t>
+  </si>
+  <si>
+    <t>EmpNum</t>
+  </si>
+  <si>
+    <t>新工号</t>
+  </si>
+  <si>
+    <t>AppDept</t>
+  </si>
+  <si>
+    <t>部门</t>
+  </si>
+  <si>
+    <t>AppEmail</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>AppMobile</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>AppNo</t>
+  </si>
+  <si>
+    <t>AppDate</t>
+  </si>
+  <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TaskID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APPNO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DESC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>READONLYURL</t>
+  </si>
+  <si>
+    <t>只读链接</t>
+  </si>
+  <si>
+    <t>MODIFYURL</t>
+  </si>
+  <si>
+    <t>可编辑链接</t>
   </si>
   <si>
     <t>nvarchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NodeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExIDField</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常标识字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPRemark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPUserAcc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理人工号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPUserName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>处理时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUserAcc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建人工号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUserName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,12 +179,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -243,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -251,29 +196,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -554,13 +482,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -589,348 +520,251 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D6">
         <v>500</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
       </c>
       <c r="D9">
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
       </c>
       <c r="D10">
         <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
       </c>
       <c r="D11">
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18">
-        <v>50</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
